--- a/resources/G3EI1/Notes_ApresRats.xlsx
+++ b/resources/G3EI1/Notes_ApresRats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8DD55-E691-44BD-B76C-A9BA60C77477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B06F3D-067C-4941-B397-1B0CF44AD437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{92D376FE-1D44-481B-9053-633DD71ADE42}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>CNE</t>
   </si>
@@ -61,73 +61,313 @@
     <t>Note_G3EI116</t>
   </si>
   <si>
-    <t>Note_G3EI121</t>
-  </si>
-  <si>
-    <t>Note_G3EI122</t>
-  </si>
-  <si>
-    <t>Note_G3EI123</t>
-  </si>
-  <si>
-    <t>G3EI1_FN1</t>
-  </si>
-  <si>
-    <t>G3EI1_LN1</t>
-  </si>
-  <si>
-    <t>G3EI1_FN2</t>
-  </si>
-  <si>
-    <t>G3EI1_LN2</t>
-  </si>
-  <si>
-    <t>G3EI1_FN3</t>
-  </si>
-  <si>
-    <t>G3EI1_LN3</t>
-  </si>
-  <si>
-    <t>G3EI1_FN4</t>
-  </si>
-  <si>
-    <t>G3EI1_LN4</t>
-  </si>
-  <si>
-    <t>G3EI1_FN5</t>
-  </si>
-  <si>
-    <t>G3EI1_LN5</t>
-  </si>
-  <si>
-    <t>G3EI1_FN6</t>
-  </si>
-  <si>
-    <t>G3EI1_LN6</t>
-  </si>
-  <si>
-    <t>G3EI1_FN7</t>
-  </si>
-  <si>
-    <t>G3EI1_LN7</t>
-  </si>
-  <si>
-    <t>G3EI1_FN8</t>
-  </si>
-  <si>
-    <t>G3EI1_LN8</t>
-  </si>
-  <si>
-    <t>G3EI1_FN9</t>
-  </si>
-  <si>
-    <t>G3EI1_LN9</t>
-  </si>
-  <si>
-    <t>G3EI1_FN10</t>
-  </si>
-  <si>
-    <t>G3EI1_LN10</t>
+    <t>Note_G3EI117</t>
+  </si>
+  <si>
+    <t>Note_G3EI118</t>
+  </si>
+  <si>
+    <t>Note_G3EI119</t>
+  </si>
+  <si>
+    <t>John Barrett</t>
+  </si>
+  <si>
+    <t>Aquila Willis</t>
+  </si>
+  <si>
+    <t>Chadwick Haynes</t>
+  </si>
+  <si>
+    <t>Blossom Henry</t>
+  </si>
+  <si>
+    <t>Channing Gregory</t>
+  </si>
+  <si>
+    <t>Nevada Mullins</t>
+  </si>
+  <si>
+    <t>Sheila Baxter</t>
+  </si>
+  <si>
+    <t>Chanda Brooks</t>
+  </si>
+  <si>
+    <t>Aurelia Carney</t>
+  </si>
+  <si>
+    <t>Ignatius Cooper</t>
+  </si>
+  <si>
+    <t>Phillip Hardin</t>
+  </si>
+  <si>
+    <t>Wilma Mayer</t>
+  </si>
+  <si>
+    <t>Cody Solomon</t>
+  </si>
+  <si>
+    <t>Blythe Pitts</t>
+  </si>
+  <si>
+    <t>Bruno Ruiz</t>
+  </si>
+  <si>
+    <t>Leonard Gilmore</t>
+  </si>
+  <si>
+    <t>Nasim Dalton</t>
+  </si>
+  <si>
+    <t>Akeem Reed</t>
+  </si>
+  <si>
+    <t>Bell Delacruz</t>
+  </si>
+  <si>
+    <t>Patrick Benjamin</t>
+  </si>
+  <si>
+    <t>Ray Willis</t>
+  </si>
+  <si>
+    <t>Porter Hall</t>
+  </si>
+  <si>
+    <t>Tanek Terrell</t>
+  </si>
+  <si>
+    <t>Ria Daniels</t>
+  </si>
+  <si>
+    <t>Lana Henson</t>
+  </si>
+  <si>
+    <t>Lane Dodson</t>
+  </si>
+  <si>
+    <t>Cora West</t>
+  </si>
+  <si>
+    <t>Erin Chambers</t>
+  </si>
+  <si>
+    <t>Sydnee Reid</t>
+  </si>
+  <si>
+    <t>Hyacinth Fitzgerald</t>
+  </si>
+  <si>
+    <t>Isabelle Rhodes</t>
+  </si>
+  <si>
+    <t>Jerome Cole</t>
+  </si>
+  <si>
+    <t>Kiara Rogers</t>
+  </si>
+  <si>
+    <t>Bevis Vega</t>
+  </si>
+  <si>
+    <t>Tanya Melton</t>
+  </si>
+  <si>
+    <t>Cole Case</t>
+  </si>
+  <si>
+    <t>Zephania Campbell</t>
+  </si>
+  <si>
+    <t>Maris Randolph</t>
+  </si>
+  <si>
+    <t>Willa Alvarez</t>
+  </si>
+  <si>
+    <t>Sawyer Saunders</t>
+  </si>
+  <si>
+    <t>Louis James</t>
+  </si>
+  <si>
+    <t>Edward Nunez</t>
+  </si>
+  <si>
+    <t>Lucian Justice</t>
+  </si>
+  <si>
+    <t>Bernard Wilcox</t>
+  </si>
+  <si>
+    <t>Rhiannon Small</t>
+  </si>
+  <si>
+    <t>Rudyard Soto</t>
+  </si>
+  <si>
+    <t>Owen Mcpherson</t>
+  </si>
+  <si>
+    <t>Bryar Whitley</t>
+  </si>
+  <si>
+    <t>Maile Hayden</t>
+  </si>
+  <si>
+    <t>Rashad Ramsey</t>
+  </si>
+  <si>
+    <t>Ciaran Flowers</t>
+  </si>
+  <si>
+    <t>Ella Wilcox</t>
+  </si>
+  <si>
+    <t>Oleg Bruce</t>
+  </si>
+  <si>
+    <t>Colin Collier</t>
+  </si>
+  <si>
+    <t>Conan Bradshaw</t>
+  </si>
+  <si>
+    <t>Alisa Dawson</t>
+  </si>
+  <si>
+    <t>Destiny Landry</t>
+  </si>
+  <si>
+    <t>Lane Burt</t>
+  </si>
+  <si>
+    <t>Leandra Faulkner</t>
+  </si>
+  <si>
+    <t>Raymond Weber</t>
+  </si>
+  <si>
+    <t>Maryam Richards</t>
+  </si>
+  <si>
+    <t>Ursula Morrison</t>
+  </si>
+  <si>
+    <t>Odessa Jenkins</t>
+  </si>
+  <si>
+    <t>Hakeem Cooper</t>
+  </si>
+  <si>
+    <t>Isaiah Franklin</t>
+  </si>
+  <si>
+    <t>Valentine Bernard</t>
+  </si>
+  <si>
+    <t>Marvin Wilkinson</t>
+  </si>
+  <si>
+    <t>Cassady Erickson</t>
+  </si>
+  <si>
+    <t>Jelani Ford</t>
+  </si>
+  <si>
+    <t>Yuri Wilkerson</t>
+  </si>
+  <si>
+    <t>Veronica Rich</t>
+  </si>
+  <si>
+    <t>Cara Kaufman</t>
+  </si>
+  <si>
+    <t>Vance Boyle</t>
+  </si>
+  <si>
+    <t>Noelani Bernard</t>
+  </si>
+  <si>
+    <t>Shad Wilson</t>
+  </si>
+  <si>
+    <t>Holmes Baird</t>
+  </si>
+  <si>
+    <t>Macy Holcomb</t>
+  </si>
+  <si>
+    <t>Nasim Weaver</t>
+  </si>
+  <si>
+    <t>Cody Atkins</t>
+  </si>
+  <si>
+    <t>Xenos Stout</t>
+  </si>
+  <si>
+    <t>Devin Mack</t>
+  </si>
+  <si>
+    <t>MacKenzie Chase</t>
+  </si>
+  <si>
+    <t>Julian Ashley</t>
+  </si>
+  <si>
+    <t>Priscilla Booth</t>
+  </si>
+  <si>
+    <t>Sigourney Cervantes</t>
+  </si>
+  <si>
+    <t>Wade Santiago</t>
+  </si>
+  <si>
+    <t>Hamish Vaughn</t>
+  </si>
+  <si>
+    <t>Serina Bowers</t>
+  </si>
+  <si>
+    <t>Malcolm Glover</t>
+  </si>
+  <si>
+    <t>Sonya Soto</t>
+  </si>
+  <si>
+    <t>Reed Wiley</t>
+  </si>
+  <si>
+    <t>Perry Lamb</t>
+  </si>
+  <si>
+    <t>Owen Wright</t>
+  </si>
+  <si>
+    <t>Imogene House</t>
+  </si>
+  <si>
+    <t>Ali Simpson</t>
+  </si>
+  <si>
+    <t>Zephania Hudson</t>
+  </si>
+  <si>
+    <t>Elijah Bradley</t>
+  </si>
+  <si>
+    <t>Jelani Mcneil</t>
+  </si>
+  <si>
+    <t>Rhea Miller</t>
+  </si>
+  <si>
+    <t>Athena Cline</t>
   </si>
 </sst>
 </file>
@@ -495,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1299BF9-7A99-4403-A6FA-3BB093F93F75}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,382 +783,1951 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>19000041</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>19000201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1">
-        <v>19.32</v>
-      </c>
-      <c r="G2" s="1">
-        <v>11.68</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10.73</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15.06</v>
-      </c>
-      <c r="J2" s="1">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="K2" s="1">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1">
-        <v>13.84</v>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>19000042</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>19.649999999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>15.13</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10.99</v>
-      </c>
-      <c r="K3" s="1">
-        <v>12.11</v>
-      </c>
-      <c r="L3" s="1">
-        <v>9.9600000000000009</v>
+        <f>A2+1</f>
+        <v>19000202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>19000043</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12.39</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10.52</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12.26</v>
-      </c>
-      <c r="I4" s="1">
-        <v>15.77</v>
-      </c>
-      <c r="J4" s="1">
-        <v>19.45</v>
-      </c>
-      <c r="K4" s="1">
-        <v>18.89</v>
-      </c>
-      <c r="L4" s="1">
-        <v>10</v>
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+        <v>19000203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>19000044</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>19000204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>13.09</v>
-      </c>
-      <c r="G5" s="1">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="H5" s="1">
-        <v>11.26</v>
-      </c>
-      <c r="I5" s="1">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>12.91</v>
-      </c>
-      <c r="K5" s="1">
-        <v>14.16</v>
-      </c>
-      <c r="L5" s="1">
-        <v>13.34</v>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>19000045</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>19000205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>13.89</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>17.88</v>
-      </c>
-      <c r="G6" s="1">
-        <v>17.66</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10.67</v>
-      </c>
-      <c r="I6" s="1">
-        <v>16.66</v>
-      </c>
-      <c r="J6" s="1">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="K6" s="1">
-        <v>17.93</v>
-      </c>
-      <c r="L6" s="1">
-        <v>15.91</v>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>19000046</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>19000206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G7" s="1">
-        <v>14.74</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="J7" s="1">
-        <v>12.21</v>
-      </c>
-      <c r="K7" s="1">
-        <v>16.71</v>
-      </c>
-      <c r="L7" s="1">
-        <v>11.29</v>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>19000047</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>19000207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>13.82</v>
-      </c>
-      <c r="G8" s="1">
-        <v>12.86</v>
-      </c>
-      <c r="H8" s="1">
-        <v>12.72</v>
-      </c>
-      <c r="I8" s="1">
-        <v>14.11</v>
-      </c>
-      <c r="J8" s="1">
-        <v>13.87</v>
-      </c>
-      <c r="K8" s="1">
-        <v>12.78</v>
-      </c>
-      <c r="L8" s="1">
-        <v>13.17</v>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>19000048</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>19000208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8.98</v>
-      </c>
-      <c r="F9" s="1">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="H9" s="1">
-        <v>18.84</v>
-      </c>
-      <c r="I9" s="1">
-        <v>13.45</v>
-      </c>
-      <c r="J9" s="1">
-        <v>16.75</v>
-      </c>
-      <c r="K9" s="1">
-        <v>12.07</v>
-      </c>
-      <c r="L9" s="1">
-        <v>14.63</v>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>19000049</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>19000209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
         <v>13</v>
-      </c>
-      <c r="F10" s="1">
-        <v>15.78</v>
-      </c>
-      <c r="G10" s="1">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10.95</v>
-      </c>
-      <c r="I10" s="1">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="J10" s="1">
-        <v>14.99</v>
-      </c>
-      <c r="K10" s="1">
-        <v>12.65</v>
-      </c>
-      <c r="L10" s="1">
-        <v>14.02</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>19000050</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>19000210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1">
-        <v>18.55</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="H11" s="1">
-        <v>11.39</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10.82</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1">
-        <v>17.68</v>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>19000211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>19000212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>19000213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>19000214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>19000215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>19000216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>19000217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>19000218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19000219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19000220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>19000221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>19000222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>19000223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>19000224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>19000225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>19000226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>13</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>19000227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>19000228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>19000229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>17</v>
+      </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>19000230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>19000231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>19000232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>12</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>19000233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>19000234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>19000235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>11</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>19000236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>19000237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>19000238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <v>13</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>19000239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
+      </c>
+      <c r="I40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>19000240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>19000241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>19000242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>19000243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>18</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>19000244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>19000245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>19000246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>12</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>19000247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>8</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>19000248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>19000249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>19000250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>17</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/resources/G3EI1/Notes_ApresRats.xlsx
+++ b/resources/G3EI1/Notes_ApresRats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B06F3D-067C-4941-B397-1B0CF44AD437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D5BE7-FD19-42D6-9B9A-4A95A7FA1B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{92D376FE-1D44-481B-9053-633DD71ADE42}"/>
   </bookViews>
@@ -43,33 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Note_G3EI111</t>
-  </si>
-  <si>
-    <t>Note_G3EI112</t>
-  </si>
-  <si>
-    <t>Note_G3EI113</t>
-  </si>
-  <si>
-    <t>Note_G3EI114</t>
-  </si>
-  <si>
-    <t>Note_G3EI115</t>
-  </si>
-  <si>
-    <t>Note_G3EI116</t>
-  </si>
-  <si>
-    <t>Note_G3EI117</t>
-  </si>
-  <si>
-    <t>Note_G3EI118</t>
-  </si>
-  <si>
-    <t>Note_G3EI119</t>
-  </si>
-  <si>
     <t>John Barrett</t>
   </si>
   <si>
@@ -368,16 +341,49 @@
   </si>
   <si>
     <t>Athena Cline</t>
+  </si>
+  <si>
+    <t>Note_G3EI11</t>
+  </si>
+  <si>
+    <t>Note_G3EI12</t>
+  </si>
+  <si>
+    <t>Note_G3EI13</t>
+  </si>
+  <si>
+    <t>Note_G3EI14</t>
+  </si>
+  <si>
+    <t>Note_G3EI15</t>
+  </si>
+  <si>
+    <t>Note_G3EI16</t>
+  </si>
+  <si>
+    <t>Note_G3EI17</t>
+  </si>
+  <si>
+    <t>Note_G3EI18</t>
+  </si>
+  <si>
+    <t>Note_G3EI19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -738,7 +744,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,31 +760,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -786,16 +792,16 @@
         <v>19000201</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -807,10 +813,10 @@
         <v>19</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2">
         <v>14</v>
@@ -825,16 +831,16 @@
         <v>19000202</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -852,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <v>12</v>
@@ -864,10 +870,10 @@
         <v>19000203</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -876,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -894,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -903,13 +909,13 @@
         <v>19000204</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>18</v>
@@ -927,10 +933,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>19</v>
@@ -942,16 +948,16 @@
         <v>19000205</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -966,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -981,16 +987,16 @@
         <v>19000206</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -999,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>17</v>
@@ -1020,25 +1026,25 @@
         <v>19000207</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>14</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>13</v>
@@ -1047,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>14</v>
@@ -1059,16 +1065,16 @@
         <v>19000208</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -1086,10 +1092,10 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1098,10 +1104,10 @@
         <v>19000209</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -1125,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>13</v>
@@ -1137,10 +1143,10 @@
         <v>19000210</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1155,10 +1161,10 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <v>11</v>
@@ -1176,10 +1182,10 @@
         <v>19000211</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>17</v>
@@ -1188,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1197,10 +1203,10 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K12">
         <v>16</v>
@@ -1215,19 +1221,19 @@
         <v>19000212</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>19</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>18</v>
@@ -1236,16 +1242,16 @@
         <v>17</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1254,13 +1260,13 @@
         <v>19000213</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>19</v>
@@ -1275,10 +1281,10 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K14">
         <v>16</v>
@@ -1293,13 +1299,13 @@
         <v>19000214</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -1323,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1332,10 +1338,10 @@
         <v>19000215</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>19</v>
@@ -1344,13 +1350,13 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>18</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <v>13</v>
@@ -1359,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>14</v>
@@ -1371,16 +1377,16 @@
         <v>19000216</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>19</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>12</v>
@@ -1401,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1410,19 +1416,19 @@
         <v>19000217</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -1440,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1449,13 +1455,13 @@
         <v>19000218</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>19</v>
@@ -1488,10 +1494,10 @@
         <v>19000219</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -1500,13 +1506,13 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>18</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I20">
         <v>16</v>
@@ -1515,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1527,10 +1533,10 @@
         <v>19000220</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -1551,13 +1557,13 @@
         <v>17</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>14</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1566,16 +1572,16 @@
         <v>19000221</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>14</v>
@@ -1587,10 +1593,10 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <v>17</v>
@@ -1605,10 +1611,10 @@
         <v>19000222</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -1620,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>15</v>
@@ -1629,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K23">
         <v>18</v>
@@ -1644,16 +1650,16 @@
         <v>19000223</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -1683,10 +1689,10 @@
         <v>19000224</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -1722,16 +1728,16 @@
         <v>19000225</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>14</v>
@@ -1761,19 +1767,19 @@
         <v>19000226</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -1782,7 +1788,7 @@
         <v>19</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -1800,10 +1806,10 @@
         <v>19000227</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>18</v>
@@ -1812,7 +1818,7 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>18</v>
@@ -1821,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <v>16</v>
@@ -1839,10 +1845,10 @@
         <v>19000228</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>19</v>
@@ -1854,13 +1860,13 @@
         <v>14</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>14</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -1878,10 +1884,10 @@
         <v>19000229</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>17</v>
@@ -1917,19 +1923,19 @@
         <v>19000230</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>19</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>13</v>
@@ -1941,10 +1947,10 @@
         <v>10</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L31">
         <v>14</v>
@@ -1956,19 +1962,19 @@
         <v>19000231</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>18</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>18</v>
@@ -1977,7 +1983,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <v>16</v>
@@ -1986,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -1995,10 +2001,10 @@
         <v>19000232</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>15</v>
@@ -2034,13 +2040,13 @@
         <v>19000233</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -2073,16 +2079,16 @@
         <v>19000234</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>12</v>
@@ -2103,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2112,10 +2118,10 @@
         <v>19000235</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <v>19</v>
@@ -2124,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>13</v>
@@ -2151,10 +2157,10 @@
         <v>19000236</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>14</v>
@@ -2163,7 +2169,7 @@
         <v>20</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>15</v>
@@ -2190,10 +2196,10 @@
         <v>19000237</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>14</v>
@@ -2202,16 +2208,16 @@
         <v>18</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>12</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J38">
         <v>19</v>
@@ -2229,10 +2235,10 @@
         <v>19000238</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D39">
         <v>13</v>
@@ -2241,7 +2247,7 @@
         <v>19</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>18</v>
@@ -2250,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J39">
         <v>18</v>
@@ -2268,19 +2274,19 @@
         <v>19000239</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>15</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>16</v>
@@ -2292,10 +2298,10 @@
         <v>16</v>
       </c>
       <c r="J40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L40">
         <v>12</v>
@@ -2307,10 +2313,10 @@
         <v>19000240</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>14</v>
@@ -2328,10 +2334,10 @@
         <v>19</v>
       </c>
       <c r="I41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -2346,19 +2352,19 @@
         <v>19000241</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>15</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>18</v>
@@ -2373,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="K42">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L42">
         <v>19</v>
@@ -2385,34 +2391,34 @@
         <v>19000242</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D43">
         <v>14</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>13</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L43">
         <v>16</v>
@@ -2424,16 +2430,16 @@
         <v>19000243</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>13</v>
@@ -2442,16 +2448,16 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I44">
         <v>18</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L44">
         <v>11</v>
@@ -2463,10 +2469,10 @@
         <v>19000244</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>13</v>
@@ -2502,13 +2508,13 @@
         <v>19000245</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -2523,16 +2529,16 @@
         <v>10</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <v>14</v>
       </c>
       <c r="K46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2541,19 +2547,19 @@
         <v>19000246</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>14</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>12</v>
@@ -2580,19 +2586,19 @@
         <v>19000247</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>8</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>13</v>
@@ -2601,13 +2607,13 @@
         <v>14</v>
       </c>
       <c r="I48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J48">
         <v>19</v>
       </c>
       <c r="K48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L48">
         <v>19</v>
@@ -2619,19 +2625,19 @@
         <v>19000248</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>15</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>14</v>
@@ -2640,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J49">
         <v>8</v>
@@ -2658,16 +2664,16 @@
         <v>19000249</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>12</v>
@@ -2697,10 +2703,10 @@
         <v>19000250</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <v>13</v>
@@ -2709,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -2718,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="I51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J51">
         <v>10</v>
@@ -2731,6 +2737,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>